--- a/query with timestamp/query with timestamp.xlsx
+++ b/query with timestamp/query with timestamp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxl/Desktop/recommendation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxl/Desktop/recommendation/query with timestamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1077,9 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
